--- a/datasets/2. Depurados/Diccionario de Datos Depurado.xlsx
+++ b/datasets/2. Depurados/Diccionario de Datos Depurado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="merged_taxi_data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="taxi+_zone_lookup" sheetId="3" r:id="rId3"/>
     <sheet name="Consolidados por CIudad 18-23" sheetId="4" r:id="rId4"/>
     <sheet name="NY CO2 Emissions Inv" sheetId="5" r:id="rId5"/>
-    <sheet name="Electric Vechicles" sheetId="6" r:id="rId6"/>
+    <sheet name="Electric Vehicles" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>date</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Value of Year Name of the Column Data of Original Dataset Trasposed (e.g. CY 2007 tCO2e)</t>
-  </si>
-  <si>
-    <t>ElectricCarData_Clean / ElectricCarData_Norm</t>
   </si>
   <si>
     <t xml:space="preserve">Marca del coche                                                       </t>
@@ -491,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,14 +497,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -552,17 +541,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,9 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -892,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,15 +1014,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1048,9 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1171,9 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1291,9 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1393,7 +1373,7 @@
       <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1401,25 +1381,25 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1433,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G8:G9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,10 +1424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1479,7 +1459,7 @@
       <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1530,11 +1510,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B17:B18"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1543,23 +1521,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1573,7 +1554,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
@@ -1589,7 +1570,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
@@ -1631,7 +1612,7 @@
       <c r="A12" t="s">
         <v>139</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1639,7 +1620,7 @@
       <c r="A13" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1657,14 +1638,6 @@
       </c>
       <c r="B15" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
